--- a/raw-data.xlsx
+++ b/raw-data.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rico/Documents/Working/verilock/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rico/Documents/Working/OOPSLA/verilock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6EFE54-2833-6542-9C27-5D6DC1E37146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328EFD44-B67A-9244-BD4E-B608CFB228B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22980" yWindow="0" windowWidth="15420" windowHeight="21600" xr2:uid="{0E15C672-8EE6-2C4A-9C9F-FD6E491D29AF}"/>
+    <workbookView xWindow="7960" yWindow="500" windowWidth="26380" windowHeight="19780" xr2:uid="{0E15C672-8EE6-2C4A-9C9F-FD6E491D29AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
     <sheet name="Bar" sheetId="2" r:id="rId2"/>
     <sheet name="Box" sheetId="3" r:id="rId3"/>
+    <sheet name="Channel-Sat" sheetId="5" r:id="rId4"/>
+    <sheet name="Channel-Unsat" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Raw!$A$1:$D$102</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="120">
   <si>
     <t>Case</t>
   </si>
@@ -465,6 +467,3094 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Channel-Sat'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verilock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Channel-Sat'!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Channel-Sat'!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>365.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>225.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>181.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>305.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>294.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>292.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>253.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>309.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>225.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>190.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>135.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>371.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>432.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>216.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>343.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>244.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>297.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>232.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>258.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>363.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>293.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>158.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>160.6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>335.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E1DC-4440-B3E7-3F26ECE12730}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Channel-Sat'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verilock-f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Channel-Sat'!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Channel-Sat'!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E1DC-4440-B3E7-3F26ECE12730}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1097311264"/>
+        <c:axId val="1097312992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1097311264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1097312992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1097312992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1097311264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Channel-Unsat'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verilock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Channel-Unsat'!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1069</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1538</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1813</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1827</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1939</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2207</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2258</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2286</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2405</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2498</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2564</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2604</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2687</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2848</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3054</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3104</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3133</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3223</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3231</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3284</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3774</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3864</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4062</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4087</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4128</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4537</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4613</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4835</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4860</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5097</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5485</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6115</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6642</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Channel-Unsat'!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-71C4-7245-9D43-327006752FCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Channel-Unsat'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verilock-f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Channel-Unsat'!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1069</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1538</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1813</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1827</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1939</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2207</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2258</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2286</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2405</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2498</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2564</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2604</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2687</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2848</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3054</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3104</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3133</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3223</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3231</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3284</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3774</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3864</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4062</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4087</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4128</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4537</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4613</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4835</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4860</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5097</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5485</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6115</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6642</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Channel-Unsat'!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>114.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>107.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>435.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>59.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>586.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>502.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>57.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-71C4-7245-9D43-327006752FCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1108846448"/>
+        <c:axId val="1108848176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1108846448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1108848176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1108848176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1108846448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073AD7B4-E2A3-4134-ECCE-486250A1B790}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD3C67F0-1622-2379-D264-A30B8D5DC47F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -767,7 +3857,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2808,7 +5898,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2966,4 +6056,1164 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72276FDC-EF75-2449-9E9F-E1806300024E}">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>365.1</v>
+      </c>
+      <c r="C2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>225.5</v>
+      </c>
+      <c r="C3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>183.8</v>
+      </c>
+      <c r="C4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>29.8</v>
+      </c>
+      <c r="C5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>69</v>
+      </c>
+      <c r="C6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="C7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>181.6</v>
+      </c>
+      <c r="C8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>26.1</v>
+      </c>
+      <c r="C9">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>398.7</v>
+      </c>
+      <c r="C10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>142</v>
+      </c>
+      <c r="C11">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>71</v>
+      </c>
+      <c r="B13">
+        <v>307</v>
+      </c>
+      <c r="C13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>73</v>
+      </c>
+      <c r="B14">
+        <v>305.3</v>
+      </c>
+      <c r="C14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>92</v>
+      </c>
+      <c r="B15">
+        <v>366</v>
+      </c>
+      <c r="C15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>93</v>
+      </c>
+      <c r="B16">
+        <v>30.1</v>
+      </c>
+      <c r="C16">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>106</v>
+      </c>
+      <c r="B17">
+        <v>294.7</v>
+      </c>
+      <c r="C17">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>108</v>
+      </c>
+      <c r="B18">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="C18">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>113</v>
+      </c>
+      <c r="B19">
+        <v>25.3</v>
+      </c>
+      <c r="C19">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>132</v>
+      </c>
+      <c r="B20">
+        <v>100.4</v>
+      </c>
+      <c r="C20">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>150</v>
+      </c>
+      <c r="B21">
+        <v>253.3</v>
+      </c>
+      <c r="C21">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>154</v>
+      </c>
+      <c r="B22">
+        <v>309.10000000000002</v>
+      </c>
+      <c r="C22">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>158</v>
+      </c>
+      <c r="B23">
+        <v>225.7</v>
+      </c>
+      <c r="C23">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>178</v>
+      </c>
+      <c r="B24">
+        <v>190.6</v>
+      </c>
+      <c r="C24">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>218</v>
+      </c>
+      <c r="B25">
+        <v>59.7</v>
+      </c>
+      <c r="C25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>219</v>
+      </c>
+      <c r="B26">
+        <v>239</v>
+      </c>
+      <c r="C26">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>272</v>
+      </c>
+      <c r="B27">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="C27">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>272</v>
+      </c>
+      <c r="B28">
+        <v>135.6</v>
+      </c>
+      <c r="C28">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>292</v>
+      </c>
+      <c r="B29">
+        <v>371.3</v>
+      </c>
+      <c r="C29">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>293</v>
+      </c>
+      <c r="B30">
+        <v>27.1</v>
+      </c>
+      <c r="C30">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>330</v>
+      </c>
+      <c r="B31">
+        <v>432.2</v>
+      </c>
+      <c r="C31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>334</v>
+      </c>
+      <c r="B32">
+        <v>216.5</v>
+      </c>
+      <c r="C32">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>335</v>
+      </c>
+      <c r="B33">
+        <v>71.5</v>
+      </c>
+      <c r="C33">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>340</v>
+      </c>
+      <c r="B34">
+        <v>343.9</v>
+      </c>
+      <c r="C34">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>344</v>
+      </c>
+      <c r="B35">
+        <v>19.8</v>
+      </c>
+      <c r="C35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>362</v>
+      </c>
+      <c r="B36">
+        <v>17.8</v>
+      </c>
+      <c r="C36">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>379</v>
+      </c>
+      <c r="B37">
+        <v>244.5</v>
+      </c>
+      <c r="C37">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>387</v>
+      </c>
+      <c r="B38">
+        <v>297.3</v>
+      </c>
+      <c r="C38">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>431</v>
+      </c>
+      <c r="B39">
+        <v>232.1</v>
+      </c>
+      <c r="C39">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>435</v>
+      </c>
+      <c r="B40">
+        <v>60</v>
+      </c>
+      <c r="C40">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>447</v>
+      </c>
+      <c r="B41">
+        <v>29.5</v>
+      </c>
+      <c r="C41">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>450</v>
+      </c>
+      <c r="B42">
+        <v>258.7</v>
+      </c>
+      <c r="C42">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>450</v>
+      </c>
+      <c r="B43">
+        <v>363.4</v>
+      </c>
+      <c r="C43">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>455</v>
+      </c>
+      <c r="B44">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="C44">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>457</v>
+      </c>
+      <c r="B45">
+        <v>44.8</v>
+      </c>
+      <c r="C45">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>464</v>
+      </c>
+      <c r="B46">
+        <v>293.3</v>
+      </c>
+      <c r="C46">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>471</v>
+      </c>
+      <c r="B47">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="C47">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>471</v>
+      </c>
+      <c r="B48">
+        <v>22.5</v>
+      </c>
+      <c r="C48">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>483</v>
+      </c>
+      <c r="B49">
+        <v>160.6</v>
+      </c>
+      <c r="C49">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>492</v>
+      </c>
+      <c r="B50">
+        <v>300</v>
+      </c>
+      <c r="C50">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>498</v>
+      </c>
+      <c r="B51">
+        <v>335.8</v>
+      </c>
+      <c r="C51">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C51">
+    <sortCondition ref="A2:A51"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1630982E-F949-6B47-AEB2-83655781C9ED}">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>252</v>
+      </c>
+      <c r="B2">
+        <v>1.5</v>
+      </c>
+      <c r="C2">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>344</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>455</v>
+      </c>
+      <c r="B4">
+        <v>2.9</v>
+      </c>
+      <c r="C4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>494</v>
+      </c>
+      <c r="B5">
+        <v>2.6</v>
+      </c>
+      <c r="C5">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>687</v>
+      </c>
+      <c r="B6">
+        <v>4.3</v>
+      </c>
+      <c r="C6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>739</v>
+      </c>
+      <c r="B7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C7">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>810</v>
+      </c>
+      <c r="B8">
+        <v>5.2</v>
+      </c>
+      <c r="C8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>847</v>
+      </c>
+      <c r="B9">
+        <v>5.6</v>
+      </c>
+      <c r="C9">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1069</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1138</v>
+      </c>
+      <c r="B11">
+        <v>9.4</v>
+      </c>
+      <c r="C11">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1234</v>
+      </c>
+      <c r="B12">
+        <v>25.3</v>
+      </c>
+      <c r="C12">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1538</v>
+      </c>
+      <c r="B13">
+        <v>23.8</v>
+      </c>
+      <c r="C13">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1813</v>
+      </c>
+      <c r="B14">
+        <v>12.7</v>
+      </c>
+      <c r="C14">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1827</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>114.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1850</v>
+      </c>
+      <c r="B16">
+        <v>9.9</v>
+      </c>
+      <c r="C16">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1912</v>
+      </c>
+      <c r="B17">
+        <v>11.8</v>
+      </c>
+      <c r="C17">
+        <v>107.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1939</v>
+      </c>
+      <c r="B18">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2039</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2059</v>
+      </c>
+      <c r="B20">
+        <v>22.7</v>
+      </c>
+      <c r="C20">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2121</v>
+      </c>
+      <c r="B21">
+        <v>10.4</v>
+      </c>
+      <c r="C21">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2207</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2258</v>
+      </c>
+      <c r="B23">
+        <v>12.6</v>
+      </c>
+      <c r="C23">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2286</v>
+      </c>
+      <c r="B24">
+        <v>11.9</v>
+      </c>
+      <c r="C24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2405</v>
+      </c>
+      <c r="B25">
+        <v>13.4</v>
+      </c>
+      <c r="C25">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2498</v>
+      </c>
+      <c r="B26">
+        <v>12.8</v>
+      </c>
+      <c r="C26">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2564</v>
+      </c>
+      <c r="B27">
+        <v>29.8</v>
+      </c>
+      <c r="C27">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2604</v>
+      </c>
+      <c r="B28">
+        <v>14.9</v>
+      </c>
+      <c r="C28">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2687</v>
+      </c>
+      <c r="B29">
+        <v>14.7</v>
+      </c>
+      <c r="C29">
+        <v>435.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2848</v>
+      </c>
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>3054</v>
+      </c>
+      <c r="B31">
+        <v>16.8</v>
+      </c>
+      <c r="C31">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3104</v>
+      </c>
+      <c r="B32">
+        <v>14.4</v>
+      </c>
+      <c r="C32">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3133</v>
+      </c>
+      <c r="B33">
+        <v>19.3</v>
+      </c>
+      <c r="C33">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3223</v>
+      </c>
+      <c r="B34">
+        <v>23.7</v>
+      </c>
+      <c r="C34">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3231</v>
+      </c>
+      <c r="B35">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3284</v>
+      </c>
+      <c r="B36">
+        <v>18.3</v>
+      </c>
+      <c r="C36">
+        <v>586.20000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3700</v>
+      </c>
+      <c r="B37">
+        <v>23.6</v>
+      </c>
+      <c r="C37">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3774</v>
+      </c>
+      <c r="B38">
+        <v>37.4</v>
+      </c>
+      <c r="C38">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3864</v>
+      </c>
+      <c r="B39">
+        <v>30.3</v>
+      </c>
+      <c r="C39">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>4023</v>
+      </c>
+      <c r="B40">
+        <v>33.6</v>
+      </c>
+      <c r="C40">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>4062</v>
+      </c>
+      <c r="B41">
+        <v>26.7</v>
+      </c>
+      <c r="C41">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>4087</v>
+      </c>
+      <c r="B42">
+        <v>25.3</v>
+      </c>
+      <c r="C42">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>4128</v>
+      </c>
+      <c r="B43">
+        <v>18.3</v>
+      </c>
+      <c r="C43">
+        <v>502.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>4537</v>
+      </c>
+      <c r="B44">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="C44">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>4613</v>
+      </c>
+      <c r="B45">
+        <v>25.8</v>
+      </c>
+      <c r="C45">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>4835</v>
+      </c>
+      <c r="B46">
+        <v>40.9</v>
+      </c>
+      <c r="C46">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>4860</v>
+      </c>
+      <c r="B47">
+        <v>23.2</v>
+      </c>
+      <c r="C47">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>5097</v>
+      </c>
+      <c r="B48">
+        <v>25.9</v>
+      </c>
+      <c r="C48">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>5485</v>
+      </c>
+      <c r="B49">
+        <v>26.8</v>
+      </c>
+      <c r="C49">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>6115</v>
+      </c>
+      <c r="B50">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="C50">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>6642</v>
+      </c>
+      <c r="B51">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="C51">
+        <v>57.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C51">
+    <sortCondition ref="A2:A51"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/raw-data.xlsx
+++ b/raw-data.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rico/Documents/Working/OOPSLA/verilock/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rico/Documents/Working/TCAD/verilock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328EFD44-B67A-9244-BD4E-B608CFB228B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CA308A-BF80-0C4F-92E6-6271DD5AA319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7960" yWindow="500" windowWidth="26380" windowHeight="19780" xr2:uid="{0E15C672-8EE6-2C4A-9C9F-FD6E491D29AF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{0E15C672-8EE6-2C4A-9C9F-FD6E491D29AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
-    <sheet name="Bar" sheetId="2" r:id="rId2"/>
-    <sheet name="Box" sheetId="3" r:id="rId3"/>
-    <sheet name="Channel-Sat" sheetId="5" r:id="rId4"/>
-    <sheet name="Channel-Unsat" sheetId="6" r:id="rId5"/>
+    <sheet name="Pearson-D" sheetId="8" r:id="rId2"/>
+    <sheet name="Person-C" sheetId="9" r:id="rId3"/>
+    <sheet name="Module-Pearson" sheetId="10" r:id="rId4"/>
+    <sheet name="Channel-Pearson" sheetId="11" r:id="rId5"/>
+    <sheet name="Bar" sheetId="2" r:id="rId6"/>
+    <sheet name="Box" sheetId="3" r:id="rId7"/>
+    <sheet name="Channel-Sat" sheetId="5" r:id="rId8"/>
+    <sheet name="Channel-Unsat" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Raw!$A$1:$D$102</definedName>
@@ -3558,9 +3562,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3598,7 +3602,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3704,7 +3708,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3846,7 +3850,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3856,8 +3860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61505FCB-4635-EE4C-9D3A-EC27909CA37A}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5894,6 +5898,2299 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80279DDC-EED5-6E44-8CC6-8F86F4092FA7}">
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1.9</v>
+      </c>
+      <c r="B1">
+        <v>1.5</v>
+      </c>
+      <c r="C1">
+        <f>PEARSON(A1:A50,B1:B50)</f>
+        <v>0.86584466106729174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2.7</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3.6</v>
+      </c>
+      <c r="B3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3.7</v>
+      </c>
+      <c r="B4">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B5">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5.5</v>
+      </c>
+      <c r="B6">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6.8</v>
+      </c>
+      <c r="B8">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6.9</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8.1</v>
+      </c>
+      <c r="B10">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B11">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10.6</v>
+      </c>
+      <c r="B12">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10.6</v>
+      </c>
+      <c r="B13">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11.8</v>
+      </c>
+      <c r="B14">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12.4</v>
+      </c>
+      <c r="B15">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13.3</v>
+      </c>
+      <c r="B16">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13.4</v>
+      </c>
+      <c r="B17">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15.3</v>
+      </c>
+      <c r="B19">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>15.5</v>
+      </c>
+      <c r="B20">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>15.5</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>15.7</v>
+      </c>
+      <c r="B22">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>15.8</v>
+      </c>
+      <c r="B23">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>16.7</v>
+      </c>
+      <c r="B25">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B27">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="B28">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="B29">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="B30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>21.2</v>
+      </c>
+      <c r="B31">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>22.3</v>
+      </c>
+      <c r="B33">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>22.4</v>
+      </c>
+      <c r="B34">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>22.8</v>
+      </c>
+      <c r="B35">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>24.3</v>
+      </c>
+      <c r="B36">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>27.1</v>
+      </c>
+      <c r="B37">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>28.8</v>
+      </c>
+      <c r="B38">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>29.5</v>
+      </c>
+      <c r="B39">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>30.1</v>
+      </c>
+      <c r="B40">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>30.2</v>
+      </c>
+      <c r="B41">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>31.7</v>
+      </c>
+      <c r="B42">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>31.9</v>
+      </c>
+      <c r="B43">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>32.4</v>
+      </c>
+      <c r="B44">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="B45">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>34.6</v>
+      </c>
+      <c r="B46">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>36.5</v>
+      </c>
+      <c r="B47">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="B48">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>40.4</v>
+      </c>
+      <c r="B49">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>42.5</v>
+      </c>
+      <c r="B50">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B50">
+    <sortCondition ref="A1:A50"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3229A10F-A946-4C4B-8EDE-CDF87E793491}">
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>9.6</v>
+      </c>
+      <c r="B1">
+        <v>22.5</v>
+      </c>
+      <c r="C1">
+        <f>PEARSON(A1:A50,B1:B50)</f>
+        <v>0.9345401452035661</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10.4</v>
+      </c>
+      <c r="B2">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>11.2</v>
+      </c>
+      <c r="B3">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>11.6</v>
+      </c>
+      <c r="B4">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>11.8</v>
+      </c>
+      <c r="B5">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>12.3</v>
+      </c>
+      <c r="B6">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>12.3</v>
+      </c>
+      <c r="B7">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>12.9</v>
+      </c>
+      <c r="B8">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>13.1</v>
+      </c>
+      <c r="B9">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>14.2</v>
+      </c>
+      <c r="B10">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>15.6</v>
+      </c>
+      <c r="B11">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>15.9</v>
+      </c>
+      <c r="B12">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="B13">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B14">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>19.8</v>
+      </c>
+      <c r="B15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>21.8</v>
+      </c>
+      <c r="B17">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>22.7</v>
+      </c>
+      <c r="B19">
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>24.3</v>
+      </c>
+      <c r="B20">
+        <v>135.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>27.2</v>
+      </c>
+      <c r="B21">
+        <v>190.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>28.9</v>
+      </c>
+      <c r="B22">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>29.3</v>
+      </c>
+      <c r="B23">
+        <v>158.30000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>29.5</v>
+      </c>
+      <c r="B24">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>29.6</v>
+      </c>
+      <c r="B25">
+        <v>305.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>29.9</v>
+      </c>
+      <c r="B26">
+        <v>183.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>30.2</v>
+      </c>
+      <c r="B27">
+        <v>160.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>32.5</v>
+      </c>
+      <c r="B28">
+        <v>371.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>225.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>33.4</v>
+      </c>
+      <c r="B30">
+        <v>216.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>34.6</v>
+      </c>
+      <c r="B31">
+        <v>181.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="B32">
+        <v>225.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>244.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>36.9</v>
+      </c>
+      <c r="B34">
+        <v>253.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>36.9</v>
+      </c>
+      <c r="B35">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>37.9</v>
+      </c>
+      <c r="B36">
+        <v>297.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>38.5</v>
+      </c>
+      <c r="B37">
+        <v>343.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>293.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>294.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="B41">
+        <v>292.60000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40.1</v>
+      </c>
+      <c r="B42">
+        <v>365.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>40.5</v>
+      </c>
+      <c r="B43">
+        <v>232.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>363.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>41.6</v>
+      </c>
+      <c r="B45">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>398.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>43.4</v>
+      </c>
+      <c r="B47">
+        <v>258.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>43.5</v>
+      </c>
+      <c r="B48">
+        <v>432.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>43.9</v>
+      </c>
+      <c r="B49">
+        <v>335.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>45.8</v>
+      </c>
+      <c r="B50">
+        <v>309.10000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B50">
+    <sortCondition ref="A1:A50"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53332CE7-AE0E-BB48-B31E-58DD64B3D65B}">
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>239</v>
+      </c>
+      <c r="C1">
+        <f>PEARSON(A1:A50,B1:B50)</f>
+        <v>-0.15210078273243735</v>
+      </c>
+      <c r="E1">
+        <v>7</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <f>PEARSON(E1:E50,F1:F50)</f>
+        <v>0.39197119184042495</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>244.5</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>183.8</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>22.5</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>371.3</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>366</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>135.6</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>17.8</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>232.1</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>160.6</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>69</v>
+      </c>
+      <c r="E12">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>343.9</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>432.2</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>30.1</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>307</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>225.5</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>300</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>142</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>253.3</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>100.4</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>293.3</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>25.3</v>
+      </c>
+      <c r="E23">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>225.7</v>
+      </c>
+      <c r="E24">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>29.8</v>
+      </c>
+      <c r="E25">
+        <v>19</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E26">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>26.1</v>
+      </c>
+      <c r="E27">
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="E28">
+        <v>19</v>
+      </c>
+      <c r="F28">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="E29">
+        <v>19</v>
+      </c>
+      <c r="F29">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>181.6</v>
+      </c>
+      <c r="E30">
+        <v>19</v>
+      </c>
+      <c r="F30">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>71.5</v>
+      </c>
+      <c r="E31">
+        <v>21</v>
+      </c>
+      <c r="F31">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>294.7</v>
+      </c>
+      <c r="E32">
+        <v>23</v>
+      </c>
+      <c r="F32">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>216.5</v>
+      </c>
+      <c r="E33">
+        <v>23</v>
+      </c>
+      <c r="F33">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>297.3</v>
+      </c>
+      <c r="E34">
+        <v>23</v>
+      </c>
+      <c r="F34">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>190.6</v>
+      </c>
+      <c r="E35">
+        <v>23</v>
+      </c>
+      <c r="F35">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>363.4</v>
+      </c>
+      <c r="E36">
+        <v>25</v>
+      </c>
+      <c r="F36">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>305.3</v>
+      </c>
+      <c r="E37">
+        <v>25</v>
+      </c>
+      <c r="F37">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E38">
+        <v>25</v>
+      </c>
+      <c r="F38">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <v>309.10000000000002</v>
+      </c>
+      <c r="E39">
+        <v>25</v>
+      </c>
+      <c r="F39">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>44.8</v>
+      </c>
+      <c r="E40">
+        <v>27</v>
+      </c>
+      <c r="F40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>60</v>
+      </c>
+      <c r="E41">
+        <v>27</v>
+      </c>
+      <c r="F41">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>258.7</v>
+      </c>
+      <c r="E42">
+        <v>27</v>
+      </c>
+      <c r="F42">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E43">
+        <v>29</v>
+      </c>
+      <c r="F43">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <v>27.1</v>
+      </c>
+      <c r="E44">
+        <v>31</v>
+      </c>
+      <c r="F44">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>365.1</v>
+      </c>
+      <c r="E45">
+        <v>31</v>
+      </c>
+      <c r="F45">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>19.8</v>
+      </c>
+      <c r="E46">
+        <v>33</v>
+      </c>
+      <c r="F46">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>29.5</v>
+      </c>
+      <c r="E47">
+        <v>33</v>
+      </c>
+      <c r="F47">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>13</v>
+      </c>
+      <c r="B48">
+        <v>59.7</v>
+      </c>
+      <c r="E48">
+        <v>35</v>
+      </c>
+      <c r="F48">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>13</v>
+      </c>
+      <c r="B49">
+        <v>335.8</v>
+      </c>
+      <c r="E49">
+        <v>43</v>
+      </c>
+      <c r="F49">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <v>398.7</v>
+      </c>
+      <c r="E50">
+        <v>45</v>
+      </c>
+      <c r="F50">
+        <v>18.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E1:F50">
+    <sortCondition ref="E1:E50"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD1D4B9-C797-2042-84B0-05E164AA7C50}">
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>435</v>
+      </c>
+      <c r="B1">
+        <v>60</v>
+      </c>
+      <c r="C1">
+        <f>PEARSON(A1:A50,B1:B50)</f>
+        <v>-8.5652745421096656E-3</v>
+      </c>
+      <c r="E1">
+        <v>1912</v>
+      </c>
+      <c r="F1">
+        <v>11.8</v>
+      </c>
+      <c r="G1">
+        <f>PEARSON(E1:E50,F1:F50)</f>
+        <v>0.8358071005810459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>272</v>
+      </c>
+      <c r="B2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E2">
+        <v>1939</v>
+      </c>
+      <c r="F2">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>181.6</v>
+      </c>
+      <c r="E3">
+        <v>344</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>362</v>
+      </c>
+      <c r="B4">
+        <v>17.8</v>
+      </c>
+      <c r="E4">
+        <v>3284</v>
+      </c>
+      <c r="F4">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>431</v>
+      </c>
+      <c r="B5">
+        <v>232.1</v>
+      </c>
+      <c r="E5">
+        <v>3054</v>
+      </c>
+      <c r="F5">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>483</v>
+      </c>
+      <c r="B6">
+        <v>160.6</v>
+      </c>
+      <c r="E6">
+        <v>3231</v>
+      </c>
+      <c r="F6">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>73</v>
+      </c>
+      <c r="B7">
+        <v>305.3</v>
+      </c>
+      <c r="E7">
+        <v>1069</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>293</v>
+      </c>
+      <c r="B8">
+        <v>27.1</v>
+      </c>
+      <c r="E8">
+        <v>2498</v>
+      </c>
+      <c r="F8">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>365.1</v>
+      </c>
+      <c r="E9">
+        <v>2848</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>455</v>
+      </c>
+      <c r="B10">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E10">
+        <v>1538</v>
+      </c>
+      <c r="F10">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>29.8</v>
+      </c>
+      <c r="E11">
+        <v>4860</v>
+      </c>
+      <c r="F11">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>142</v>
+      </c>
+      <c r="E12">
+        <v>6115</v>
+      </c>
+      <c r="F12">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>154</v>
+      </c>
+      <c r="B13">
+        <v>309.10000000000002</v>
+      </c>
+      <c r="E13">
+        <v>4128</v>
+      </c>
+      <c r="F13">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>150</v>
+      </c>
+      <c r="B14">
+        <v>253.3</v>
+      </c>
+      <c r="E14">
+        <v>1138</v>
+      </c>
+      <c r="F14">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>344</v>
+      </c>
+      <c r="B15">
+        <v>19.8</v>
+      </c>
+      <c r="E15">
+        <v>5097</v>
+      </c>
+      <c r="F15">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>219</v>
+      </c>
+      <c r="B16">
+        <v>239</v>
+      </c>
+      <c r="E16">
+        <v>455</v>
+      </c>
+      <c r="F16">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>132</v>
+      </c>
+      <c r="B17">
+        <v>100.4</v>
+      </c>
+      <c r="E17">
+        <v>847</v>
+      </c>
+      <c r="F17">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>292</v>
+      </c>
+      <c r="B18">
+        <v>371.3</v>
+      </c>
+      <c r="E18">
+        <v>494</v>
+      </c>
+      <c r="F18">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>65</v>
+      </c>
+      <c r="B19">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E19">
+        <v>5485</v>
+      </c>
+      <c r="F19">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>26.1</v>
+      </c>
+      <c r="E20">
+        <v>4087</v>
+      </c>
+      <c r="F20">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>457</v>
+      </c>
+      <c r="B21">
+        <v>44.8</v>
+      </c>
+      <c r="E21">
+        <v>252</v>
+      </c>
+      <c r="F21">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>464</v>
+      </c>
+      <c r="B22">
+        <v>293.3</v>
+      </c>
+      <c r="E22">
+        <v>739</v>
+      </c>
+      <c r="F22">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>335</v>
+      </c>
+      <c r="B23">
+        <v>71.5</v>
+      </c>
+      <c r="E23">
+        <v>687</v>
+      </c>
+      <c r="F23">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>69</v>
+      </c>
+      <c r="E24">
+        <v>2564</v>
+      </c>
+      <c r="F24">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>106</v>
+      </c>
+      <c r="B25">
+        <v>294.7</v>
+      </c>
+      <c r="E25">
+        <v>1813</v>
+      </c>
+      <c r="F25">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>379</v>
+      </c>
+      <c r="B26">
+        <v>244.5</v>
+      </c>
+      <c r="E26">
+        <v>3104</v>
+      </c>
+      <c r="F26">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>108</v>
+      </c>
+      <c r="B27">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="E27">
+        <v>2604</v>
+      </c>
+      <c r="F27">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>340</v>
+      </c>
+      <c r="B28">
+        <v>343.9</v>
+      </c>
+      <c r="E28">
+        <v>1234</v>
+      </c>
+      <c r="F28">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>450</v>
+      </c>
+      <c r="B29">
+        <v>258.7</v>
+      </c>
+      <c r="E29">
+        <v>3864</v>
+      </c>
+      <c r="F29">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="E30">
+        <v>1850</v>
+      </c>
+      <c r="F30">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>113</v>
+      </c>
+      <c r="B31">
+        <v>25.3</v>
+      </c>
+      <c r="E31">
+        <v>3133</v>
+      </c>
+      <c r="F31">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>92</v>
+      </c>
+      <c r="B32">
+        <v>366</v>
+      </c>
+      <c r="E32">
+        <v>4023</v>
+      </c>
+      <c r="F32">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>471</v>
+      </c>
+      <c r="B33">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="E33">
+        <v>2258</v>
+      </c>
+      <c r="F33">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>272</v>
+      </c>
+      <c r="B34">
+        <v>135.6</v>
+      </c>
+      <c r="E34">
+        <v>2286</v>
+      </c>
+      <c r="F34">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>330</v>
+      </c>
+      <c r="B35">
+        <v>432.2</v>
+      </c>
+      <c r="E35">
+        <v>1827</v>
+      </c>
+      <c r="F35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>334</v>
+      </c>
+      <c r="B36">
+        <v>216.5</v>
+      </c>
+      <c r="E36">
+        <v>2687</v>
+      </c>
+      <c r="F36">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>447</v>
+      </c>
+      <c r="B37">
+        <v>29.5</v>
+      </c>
+      <c r="E37">
+        <v>4613</v>
+      </c>
+      <c r="F37">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>387</v>
+      </c>
+      <c r="B38">
+        <v>297.3</v>
+      </c>
+      <c r="E38">
+        <v>4537</v>
+      </c>
+      <c r="F38">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>218</v>
+      </c>
+      <c r="B39">
+        <v>59.7</v>
+      </c>
+      <c r="E39">
+        <v>3700</v>
+      </c>
+      <c r="F39">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>93</v>
+      </c>
+      <c r="B40">
+        <v>30.1</v>
+      </c>
+      <c r="E40">
+        <v>2059</v>
+      </c>
+      <c r="F40">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>178</v>
+      </c>
+      <c r="B41">
+        <v>190.6</v>
+      </c>
+      <c r="E41">
+        <v>3774</v>
+      </c>
+      <c r="F41">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>71</v>
+      </c>
+      <c r="B42">
+        <v>307</v>
+      </c>
+      <c r="E42">
+        <v>4835</v>
+      </c>
+      <c r="F42">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>183.8</v>
+      </c>
+      <c r="E43">
+        <v>2207</v>
+      </c>
+      <c r="F43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>498</v>
+      </c>
+      <c r="B44">
+        <v>335.8</v>
+      </c>
+      <c r="E44">
+        <v>4062</v>
+      </c>
+      <c r="F44">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>398.7</v>
+      </c>
+      <c r="E45">
+        <v>2039</v>
+      </c>
+      <c r="F45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>225.5</v>
+      </c>
+      <c r="E46">
+        <v>810</v>
+      </c>
+      <c r="F46">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>450</v>
+      </c>
+      <c r="B47">
+        <v>363.4</v>
+      </c>
+      <c r="E47">
+        <v>2405</v>
+      </c>
+      <c r="F47">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>492</v>
+      </c>
+      <c r="B48">
+        <v>300</v>
+      </c>
+      <c r="E48">
+        <v>6642</v>
+      </c>
+      <c r="F48">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>158</v>
+      </c>
+      <c r="B49">
+        <v>225.7</v>
+      </c>
+      <c r="E49">
+        <v>2121</v>
+      </c>
+      <c r="F49">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>471</v>
+      </c>
+      <c r="B50">
+        <v>22.5</v>
+      </c>
+      <c r="E50">
+        <v>3223</v>
+      </c>
+      <c r="F50">
+        <v>23.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91F813D-292E-5444-ADD5-230C243EE378}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -5979,7 +8276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA0DC21-AF3E-7849-8FF2-ACB26D67DAD9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -6058,7 +8355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72276FDC-EF75-2449-9E9F-E1806300024E}">
   <dimension ref="A1:C51"/>
   <sheetViews>
@@ -6638,7 +8935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1630982E-F949-6B47-AEB2-83655781C9ED}">
   <dimension ref="A1:C51"/>
   <sheetViews>

--- a/raw-data.xlsx
+++ b/raw-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rico/Documents/Working/TCAD/verilock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0532AC-0B9D-0346-8354-45CD275176F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427FCD04-A902-0B41-A709-895E25318400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19320" yWindow="0" windowWidth="19080" windowHeight="21600" activeTab="2" xr2:uid="{0E15C672-8EE6-2C4A-9C9F-FD6E491D29AF}"/>
+    <workbookView xWindow="20160" yWindow="0" windowWidth="18240" windowHeight="21600" activeTab="4" xr2:uid="{0E15C672-8EE6-2C4A-9C9F-FD6E491D29AF}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1" sheetId="12" r:id="rId1"/>
@@ -19,12 +19,10 @@
     <sheet name="RQ2-release" sheetId="13" r:id="rId4"/>
     <sheet name="Pearson-D" sheetId="8" r:id="rId5"/>
     <sheet name="Person-C" sheetId="9" r:id="rId6"/>
-    <sheet name="Module-Pearson" sheetId="10" r:id="rId7"/>
-    <sheet name="Channel-Pearson" sheetId="11" r:id="rId8"/>
-    <sheet name="Bar" sheetId="2" r:id="rId9"/>
-    <sheet name="Box" sheetId="3" r:id="rId10"/>
-    <sheet name="Channel-Sat" sheetId="5" r:id="rId11"/>
-    <sheet name="Channel-Unsat" sheetId="6" r:id="rId12"/>
+    <sheet name="Bar" sheetId="2" r:id="rId7"/>
+    <sheet name="Box" sheetId="3" r:id="rId8"/>
+    <sheet name="Channel-Sat" sheetId="5" r:id="rId9"/>
+    <sheet name="Channel-Unsat" sheetId="6" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'RQ2'!$A$1:$D$102</definedName>
@@ -3672,9 +3670,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3712,7 +3710,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3818,7 +3816,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3960,7 +3958,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4481,665 +4479,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA0DC21-AF3E-7849-8FF2-ACB26D67DAD9}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2">
-        <v>29.7</v>
-      </c>
-      <c r="C2">
-        <v>188.9</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>432.2</v>
-      </c>
-      <c r="F2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3">
-        <v>438.1</v>
-      </c>
-      <c r="C3">
-        <v>600</v>
-      </c>
-      <c r="D3">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E3">
-        <v>600</v>
-      </c>
-      <c r="F3">
-        <v>5.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72276FDC-EF75-2449-9E9F-E1806300024E}">
-  <dimension ref="A1:C51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>365.1</v>
-      </c>
-      <c r="C2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>225.5</v>
-      </c>
-      <c r="C3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>183.8</v>
-      </c>
-      <c r="C4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>29.8</v>
-      </c>
-      <c r="C5">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>69</v>
-      </c>
-      <c r="C6">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>26</v>
-      </c>
-      <c r="B7">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="C7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>31</v>
-      </c>
-      <c r="B8">
-        <v>181.6</v>
-      </c>
-      <c r="C8">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>26.1</v>
-      </c>
-      <c r="C9">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>47</v>
-      </c>
-      <c r="B10">
-        <v>398.7</v>
-      </c>
-      <c r="C10">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>50</v>
-      </c>
-      <c r="B11">
-        <v>142</v>
-      </c>
-      <c r="C11">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>65</v>
-      </c>
-      <c r="B12">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="C12">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>71</v>
-      </c>
-      <c r="B13">
-        <v>307</v>
-      </c>
-      <c r="C13">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>73</v>
-      </c>
-      <c r="B14">
-        <v>305.3</v>
-      </c>
-      <c r="C14">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>92</v>
-      </c>
-      <c r="B15">
-        <v>366</v>
-      </c>
-      <c r="C15">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>93</v>
-      </c>
-      <c r="B16">
-        <v>30.1</v>
-      </c>
-      <c r="C16">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>106</v>
-      </c>
-      <c r="B17">
-        <v>294.7</v>
-      </c>
-      <c r="C17">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>108</v>
-      </c>
-      <c r="B18">
-        <v>292.60000000000002</v>
-      </c>
-      <c r="C18">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>113</v>
-      </c>
-      <c r="B19">
-        <v>25.3</v>
-      </c>
-      <c r="C19">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>132</v>
-      </c>
-      <c r="B20">
-        <v>100.4</v>
-      </c>
-      <c r="C20">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>150</v>
-      </c>
-      <c r="B21">
-        <v>253.3</v>
-      </c>
-      <c r="C21">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>154</v>
-      </c>
-      <c r="B22">
-        <v>309.10000000000002</v>
-      </c>
-      <c r="C22">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>158</v>
-      </c>
-      <c r="B23">
-        <v>225.7</v>
-      </c>
-      <c r="C23">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>178</v>
-      </c>
-      <c r="B24">
-        <v>190.6</v>
-      </c>
-      <c r="C24">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>218</v>
-      </c>
-      <c r="B25">
-        <v>59.7</v>
-      </c>
-      <c r="C25">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>219</v>
-      </c>
-      <c r="B26">
-        <v>239</v>
-      </c>
-      <c r="C26">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>272</v>
-      </c>
-      <c r="B27">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="C27">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>272</v>
-      </c>
-      <c r="B28">
-        <v>135.6</v>
-      </c>
-      <c r="C28">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>292</v>
-      </c>
-      <c r="B29">
-        <v>371.3</v>
-      </c>
-      <c r="C29">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>293</v>
-      </c>
-      <c r="B30">
-        <v>27.1</v>
-      </c>
-      <c r="C30">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>330</v>
-      </c>
-      <c r="B31">
-        <v>432.2</v>
-      </c>
-      <c r="C31">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>334</v>
-      </c>
-      <c r="B32">
-        <v>216.5</v>
-      </c>
-      <c r="C32">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>335</v>
-      </c>
-      <c r="B33">
-        <v>71.5</v>
-      </c>
-      <c r="C33">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>340</v>
-      </c>
-      <c r="B34">
-        <v>343.9</v>
-      </c>
-      <c r="C34">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>344</v>
-      </c>
-      <c r="B35">
-        <v>19.8</v>
-      </c>
-      <c r="C35">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>362</v>
-      </c>
-      <c r="B36">
-        <v>17.8</v>
-      </c>
-      <c r="C36">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>379</v>
-      </c>
-      <c r="B37">
-        <v>244.5</v>
-      </c>
-      <c r="C37">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>387</v>
-      </c>
-      <c r="B38">
-        <v>297.3</v>
-      </c>
-      <c r="C38">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>431</v>
-      </c>
-      <c r="B39">
-        <v>232.1</v>
-      </c>
-      <c r="C39">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>435</v>
-      </c>
-      <c r="B40">
-        <v>60</v>
-      </c>
-      <c r="C40">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>447</v>
-      </c>
-      <c r="B41">
-        <v>29.5</v>
-      </c>
-      <c r="C41">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>450</v>
-      </c>
-      <c r="B42">
-        <v>258.7</v>
-      </c>
-      <c r="C42">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>450</v>
-      </c>
-      <c r="B43">
-        <v>363.4</v>
-      </c>
-      <c r="C43">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>455</v>
-      </c>
-      <c r="B44">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="C44">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>457</v>
-      </c>
-      <c r="B45">
-        <v>44.8</v>
-      </c>
-      <c r="C45">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>464</v>
-      </c>
-      <c r="B46">
-        <v>293.3</v>
-      </c>
-      <c r="C46">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>471</v>
-      </c>
-      <c r="B47">
-        <v>158.30000000000001</v>
-      </c>
-      <c r="C47">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>471</v>
-      </c>
-      <c r="B48">
-        <v>22.5</v>
-      </c>
-      <c r="C48">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>483</v>
-      </c>
-      <c r="B49">
-        <v>160.6</v>
-      </c>
-      <c r="C49">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>492</v>
-      </c>
-      <c r="B50">
-        <v>300</v>
-      </c>
-      <c r="C50">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>498</v>
-      </c>
-      <c r="B51">
-        <v>335.8</v>
-      </c>
-      <c r="C51">
-        <v>600</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C51">
-    <sortCondition ref="A2:A51"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1630982E-F949-6B47-AEB2-83655781C9ED}">
   <dimension ref="A1:C51"/>
   <sheetViews>
@@ -8234,8 +7573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA9C01C-8AF4-3E4E-8414-5996FF1E4AD3}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8735,7 +8074,8 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H18">
-        <v>0.69162500000000005</v>
+        <f>AVERAGE(H2:H17)</f>
+        <v>0.19974999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -8745,11 +8085,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FA905F-9398-A84C-9002-EF669D972E25}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E101"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11075,6 +10415,12 @@
       </c>
       <c r="G101">
         <v>600</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E102">
+        <f>AVERAGE(E2:E101)</f>
+        <v>16.134</v>
       </c>
     </row>
   </sheetData>
@@ -11087,8 +10433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80279DDC-EED5-6E44-8CC6-8F86F4092FA7}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11098,11 +10444,11 @@
         <v>1.9</v>
       </c>
       <c r="B1">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="C1">
         <f>PEARSON(A1:A50,B1:B50)</f>
-        <v>0.86584466106729174</v>
+        <v>0.82420274858305054</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -11110,7 +10456,7 @@
         <v>2.7</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -11118,7 +10464,7 @@
         <v>3.6</v>
       </c>
       <c r="B3">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -11126,7 +10472,7 @@
         <v>3.7</v>
       </c>
       <c r="B4">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -11134,7 +10480,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B5">
-        <v>9.8000000000000007</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -11142,7 +10488,7 @@
         <v>5.5</v>
       </c>
       <c r="B6">
-        <v>4.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -11150,7 +10496,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -11158,7 +10504,7 @@
         <v>6.8</v>
       </c>
       <c r="B8">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -11166,7 +10512,7 @@
         <v>6.9</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -11174,7 +10520,7 @@
         <v>8.1</v>
       </c>
       <c r="B10">
-        <v>9.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -11182,7 +10528,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B11">
-        <v>23.8</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -11190,7 +10536,7 @@
         <v>10.6</v>
       </c>
       <c r="B12">
-        <v>12.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -11198,7 +10544,7 @@
         <v>10.6</v>
       </c>
       <c r="B13">
-        <v>25.3</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -11206,7 +10552,7 @@
         <v>11.8</v>
       </c>
       <c r="B14">
-        <v>9.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -11214,7 +10560,7 @@
         <v>12.4</v>
       </c>
       <c r="B15">
-        <v>9.6999999999999993</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -11222,7 +10568,7 @@
         <v>13.3</v>
       </c>
       <c r="B16">
-        <v>11.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -11230,7 +10576,7 @@
         <v>13.4</v>
       </c>
       <c r="B17">
-        <v>10.4</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -11238,7 +10584,7 @@
         <v>14</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -11246,7 +10592,7 @@
         <v>15.3</v>
       </c>
       <c r="B19">
-        <v>12.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -11254,7 +10600,7 @@
         <v>15.5</v>
       </c>
       <c r="B20">
-        <v>11.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -11262,7 +10608,7 @@
         <v>15.5</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -11270,7 +10616,7 @@
         <v>15.7</v>
       </c>
       <c r="B22">
-        <v>22.7</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -11278,7 +10624,7 @@
         <v>15.8</v>
       </c>
       <c r="B23">
-        <v>13.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -11286,7 +10632,7 @@
         <v>16</v>
       </c>
       <c r="B24">
-        <v>12.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -11294,7 +10640,7 @@
         <v>16.7</v>
       </c>
       <c r="B25">
-        <v>29.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -11302,7 +10648,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -11310,7 +10656,7 @@
         <v>18.100000000000001</v>
       </c>
       <c r="B27">
-        <v>14.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -11318,7 +10664,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="B28">
-        <v>14.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -11326,7 +10672,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="B29">
-        <v>14.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -11334,7 +10680,7 @@
         <v>19.600000000000001</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -11342,7 +10688,7 @@
         <v>21.2</v>
       </c>
       <c r="B31">
-        <v>16.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -11350,7 +10696,7 @@
         <v>22</v>
       </c>
       <c r="B32">
-        <v>19.3</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -11358,7 +10704,7 @@
         <v>22.3</v>
       </c>
       <c r="B33">
-        <v>17.600000000000001</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -11366,7 +10712,7 @@
         <v>22.4</v>
       </c>
       <c r="B34">
-        <v>23.7</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -11374,7 +10720,7 @@
         <v>22.8</v>
       </c>
       <c r="B35">
-        <v>18.3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -11382,7 +10728,7 @@
         <v>24.3</v>
       </c>
       <c r="B36">
-        <v>30.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -11390,7 +10736,7 @@
         <v>27.1</v>
       </c>
       <c r="B37">
-        <v>23.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -11398,7 +10744,7 @@
         <v>28.8</v>
       </c>
       <c r="B38">
-        <v>18.3</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -11406,7 +10752,7 @@
         <v>29.5</v>
       </c>
       <c r="B39">
-        <v>25.3</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -11414,7 +10760,7 @@
         <v>30.1</v>
       </c>
       <c r="B40">
-        <v>26.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -11422,7 +10768,7 @@
         <v>30.2</v>
       </c>
       <c r="B41">
-        <v>33.6</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -11430,7 +10776,7 @@
         <v>31.7</v>
       </c>
       <c r="B42">
-        <v>40.9</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -11438,7 +10784,7 @@
         <v>31.9</v>
       </c>
       <c r="B43">
-        <v>25.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -11446,7 +10792,7 @@
         <v>32.4</v>
       </c>
       <c r="B44">
-        <v>23.2</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -11454,7 +10800,7 @@
         <v>32.799999999999997</v>
       </c>
       <c r="B45">
-        <v>36.299999999999997</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -11462,7 +10808,7 @@
         <v>34.6</v>
       </c>
       <c r="B46">
-        <v>25.9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -11470,7 +10816,7 @@
         <v>36.5</v>
       </c>
       <c r="B47">
-        <v>26.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -11478,7 +10824,7 @@
         <v>38.700000000000003</v>
       </c>
       <c r="B48">
-        <v>37.4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -11486,7 +10832,7 @@
         <v>40.4</v>
       </c>
       <c r="B49">
-        <v>32.200000000000003</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -11494,7 +10840,7 @@
         <v>42.5</v>
       </c>
       <c r="B50">
-        <v>38.799999999999997</v>
+        <v>6.9</v>
       </c>
     </row>
   </sheetData>
@@ -11510,7 +10856,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection sqref="A1:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11520,11 +10866,11 @@
         <v>9.6</v>
       </c>
       <c r="B1">
-        <v>22.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C1">
         <f>PEARSON(A1:A50,B1:B50)</f>
-        <v>0.9345401452035661</v>
+        <v>0.90313942267859948</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -11532,7 +10878,7 @@
         <v>10.4</v>
       </c>
       <c r="B2">
-        <v>17.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -11540,7 +10886,7 @@
         <v>11.2</v>
       </c>
       <c r="B3">
-        <v>30.1</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -11548,7 +10894,7 @@
         <v>11.6</v>
       </c>
       <c r="B4">
-        <v>26.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -11556,7 +10902,7 @@
         <v>11.8</v>
       </c>
       <c r="B5">
-        <v>29.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -11564,7 +10910,7 @@
         <v>12.3</v>
       </c>
       <c r="B6">
-        <v>27.1</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -11572,7 +10918,7 @@
         <v>12.3</v>
       </c>
       <c r="B7">
-        <v>19.8</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -11580,7 +10926,7 @@
         <v>12.9</v>
       </c>
       <c r="B8">
-        <v>20.399999999999999</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -11588,7 +10934,7 @@
         <v>13.1</v>
       </c>
       <c r="B9">
-        <v>33.299999999999997</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -11596,7 +10942,7 @@
         <v>14.2</v>
       </c>
       <c r="B10">
-        <v>25.3</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -11604,7 +10950,7 @@
         <v>15.6</v>
       </c>
       <c r="B11">
-        <v>29.5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -11612,7 +10958,7 @@
         <v>15.9</v>
       </c>
       <c r="B12">
-        <v>35.799999999999997</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -11620,7 +10966,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="B13">
-        <v>44.8</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -11628,7 +10974,7 @@
         <v>18.100000000000001</v>
       </c>
       <c r="B14">
-        <v>59.7</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -11636,7 +10982,7 @@
         <v>19.8</v>
       </c>
       <c r="B15">
-        <v>69</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -11644,7 +10990,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>60</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -11652,7 +10998,7 @@
         <v>21.8</v>
       </c>
       <c r="B17">
-        <v>71.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -11660,7 +11006,7 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>100.4</v>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -11668,7 +11014,7 @@
         <v>22.7</v>
       </c>
       <c r="B19">
-        <v>78.400000000000006</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -11676,7 +11022,7 @@
         <v>24.3</v>
       </c>
       <c r="B20">
-        <v>135.6</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -11684,7 +11030,7 @@
         <v>27.2</v>
       </c>
       <c r="B21">
-        <v>190.6</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -11692,7 +11038,7 @@
         <v>28.9</v>
       </c>
       <c r="B22">
-        <v>239</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -11700,7 +11046,7 @@
         <v>29.3</v>
       </c>
       <c r="B23">
-        <v>158.30000000000001</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -11708,7 +11054,7 @@
         <v>29.5</v>
       </c>
       <c r="B24">
-        <v>142</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -11716,7 +11062,7 @@
         <v>29.6</v>
       </c>
       <c r="B25">
-        <v>305.3</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -11724,7 +11070,7 @@
         <v>29.9</v>
       </c>
       <c r="B26">
-        <v>183.8</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -11732,7 +11078,7 @@
         <v>30.2</v>
       </c>
       <c r="B27">
-        <v>160.6</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -11740,7 +11086,7 @@
         <v>32.5</v>
       </c>
       <c r="B28">
-        <v>371.3</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -11748,7 +11094,7 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>225.7</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -11756,7 +11102,7 @@
         <v>33.4</v>
       </c>
       <c r="B30">
-        <v>216.5</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -11764,7 +11110,7 @@
         <v>34.6</v>
       </c>
       <c r="B31">
-        <v>181.6</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -11772,7 +11118,7 @@
         <v>34.799999999999997</v>
       </c>
       <c r="B32">
-        <v>225.5</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -11780,7 +11126,7 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>244.5</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -11788,7 +11134,7 @@
         <v>36.9</v>
       </c>
       <c r="B34">
-        <v>253.3</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -11796,7 +11142,7 @@
         <v>36.9</v>
       </c>
       <c r="B35">
-        <v>307</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -11804,7 +11150,7 @@
         <v>37.9</v>
       </c>
       <c r="B36">
-        <v>297.3</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -11812,7 +11158,7 @@
         <v>38.5</v>
       </c>
       <c r="B37">
-        <v>343.9</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -11820,7 +11166,7 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>293.3</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -11828,7 +11174,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>294.7</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -11836,7 +11182,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>366</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -11844,7 +11190,7 @@
         <v>39.299999999999997</v>
       </c>
       <c r="B41">
-        <v>292.60000000000002</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -11852,7 +11198,7 @@
         <v>40.1</v>
       </c>
       <c r="B42">
-        <v>365.1</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -11860,7 +11206,7 @@
         <v>40.5</v>
       </c>
       <c r="B43">
-        <v>232.1</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -11868,7 +11214,7 @@
         <v>41</v>
       </c>
       <c r="B44">
-        <v>363.4</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -11876,7 +11222,7 @@
         <v>41.6</v>
       </c>
       <c r="B45">
-        <v>300</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -11884,7 +11230,7 @@
         <v>43</v>
       </c>
       <c r="B46">
-        <v>398.7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -11892,7 +11238,7 @@
         <v>43.4</v>
       </c>
       <c r="B47">
-        <v>258.7</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -11900,7 +11246,7 @@
         <v>43.5</v>
       </c>
       <c r="B48">
-        <v>432.2</v>
+        <v>65.400000000000006</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -11908,7 +11254,7 @@
         <v>43.9</v>
       </c>
       <c r="B49">
-        <v>335.8</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -11916,7 +11262,7 @@
         <v>45.8</v>
       </c>
       <c r="B50">
-        <v>309.10000000000002</v>
+        <v>45.2</v>
       </c>
     </row>
   </sheetData>
@@ -11928,1455 +11274,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53332CE7-AE0E-BB48-B31E-58DD64B3D65B}">
-  <dimension ref="A1:G50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>5</v>
-      </c>
-      <c r="B1">
-        <v>239</v>
-      </c>
-      <c r="C1">
-        <f>PEARSON(A1:A50,B1:B50)</f>
-        <v>-0.15210078273243735</v>
-      </c>
-      <c r="E1">
-        <v>7</v>
-      </c>
-      <c r="F1">
-        <v>6</v>
-      </c>
-      <c r="G1">
-        <f>PEARSON(E1:E50,F1:F50)</f>
-        <v>0.39197119184042495</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>244.5</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>292.60000000000002</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>183.8</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>22.5</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>371.3</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>366</v>
-      </c>
-      <c r="E7">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>135.6</v>
-      </c>
-      <c r="E8">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>17.8</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>30.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>232.1</v>
-      </c>
-      <c r="E10">
-        <v>11</v>
-      </c>
-      <c r="F10">
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>160.6</v>
-      </c>
-      <c r="E11">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>69</v>
-      </c>
-      <c r="E12">
-        <v>13</v>
-      </c>
-      <c r="F12">
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>343.9</v>
-      </c>
-      <c r="E13">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>432.2</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
-      </c>
-      <c r="F14">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>30.1</v>
-      </c>
-      <c r="E15">
-        <v>15</v>
-      </c>
-      <c r="F15">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>307</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <v>29.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>225.5</v>
-      </c>
-      <c r="E17">
-        <v>15</v>
-      </c>
-      <c r="F17">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>300</v>
-      </c>
-      <c r="E18">
-        <v>15</v>
-      </c>
-      <c r="F18">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>8</v>
-      </c>
-      <c r="B19">
-        <v>142</v>
-      </c>
-      <c r="E19">
-        <v>15</v>
-      </c>
-      <c r="F19">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>253.3</v>
-      </c>
-      <c r="E20">
-        <v>17</v>
-      </c>
-      <c r="F20">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>100.4</v>
-      </c>
-      <c r="E21">
-        <v>17</v>
-      </c>
-      <c r="F21">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>293.3</v>
-      </c>
-      <c r="E22">
-        <v>17</v>
-      </c>
-      <c r="F22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <v>25.3</v>
-      </c>
-      <c r="E23">
-        <v>17</v>
-      </c>
-      <c r="F23">
-        <v>40.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>8</v>
-      </c>
-      <c r="B24">
-        <v>225.7</v>
-      </c>
-      <c r="E24">
-        <v>17</v>
-      </c>
-      <c r="F24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>9</v>
-      </c>
-      <c r="B25">
-        <v>29.8</v>
-      </c>
-      <c r="E25">
-        <v>19</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>9</v>
-      </c>
-      <c r="B26">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="E26">
-        <v>19</v>
-      </c>
-      <c r="F26">
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>9</v>
-      </c>
-      <c r="B27">
-        <v>26.1</v>
-      </c>
-      <c r="E27">
-        <v>19</v>
-      </c>
-      <c r="F27">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>9</v>
-      </c>
-      <c r="B28">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="E28">
-        <v>19</v>
-      </c>
-      <c r="F28">
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>9</v>
-      </c>
-      <c r="B29">
-        <v>158.30000000000001</v>
-      </c>
-      <c r="E29">
-        <v>19</v>
-      </c>
-      <c r="F29">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>10</v>
-      </c>
-      <c r="B30">
-        <v>181.6</v>
-      </c>
-      <c r="E30">
-        <v>19</v>
-      </c>
-      <c r="F30">
-        <v>38.799999999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>10</v>
-      </c>
-      <c r="B31">
-        <v>71.5</v>
-      </c>
-      <c r="E31">
-        <v>21</v>
-      </c>
-      <c r="F31">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>10</v>
-      </c>
-      <c r="B32">
-        <v>294.7</v>
-      </c>
-      <c r="E32">
-        <v>23</v>
-      </c>
-      <c r="F32">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>10</v>
-      </c>
-      <c r="B33">
-        <v>216.5</v>
-      </c>
-      <c r="E33">
-        <v>23</v>
-      </c>
-      <c r="F33">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>10</v>
-      </c>
-      <c r="B34">
-        <v>297.3</v>
-      </c>
-      <c r="E34">
-        <v>23</v>
-      </c>
-      <c r="F34">
-        <v>23.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>10</v>
-      </c>
-      <c r="B35">
-        <v>190.6</v>
-      </c>
-      <c r="E35">
-        <v>23</v>
-      </c>
-      <c r="F35">
-        <v>37.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>10</v>
-      </c>
-      <c r="B36">
-        <v>363.4</v>
-      </c>
-      <c r="E36">
-        <v>25</v>
-      </c>
-      <c r="F36">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>11</v>
-      </c>
-      <c r="B37">
-        <v>305.3</v>
-      </c>
-      <c r="E37">
-        <v>25</v>
-      </c>
-      <c r="F37">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>11</v>
-      </c>
-      <c r="B38">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="E38">
-        <v>25</v>
-      </c>
-      <c r="F38">
-        <v>33.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>11</v>
-      </c>
-      <c r="B39">
-        <v>309.10000000000002</v>
-      </c>
-      <c r="E39">
-        <v>25</v>
-      </c>
-      <c r="F39">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>11</v>
-      </c>
-      <c r="B40">
-        <v>44.8</v>
-      </c>
-      <c r="E40">
-        <v>27</v>
-      </c>
-      <c r="F40">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>12</v>
-      </c>
-      <c r="B41">
-        <v>60</v>
-      </c>
-      <c r="E41">
-        <v>27</v>
-      </c>
-      <c r="F41">
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>12</v>
-      </c>
-      <c r="B42">
-        <v>258.7</v>
-      </c>
-      <c r="E42">
-        <v>27</v>
-      </c>
-      <c r="F42">
-        <v>23.7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>13</v>
-      </c>
-      <c r="B43">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="E43">
-        <v>29</v>
-      </c>
-      <c r="F43">
-        <v>26.7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>13</v>
-      </c>
-      <c r="B44">
-        <v>27.1</v>
-      </c>
-      <c r="E44">
-        <v>31</v>
-      </c>
-      <c r="F44">
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>13</v>
-      </c>
-      <c r="B45">
-        <v>365.1</v>
-      </c>
-      <c r="E45">
-        <v>31</v>
-      </c>
-      <c r="F45">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>13</v>
-      </c>
-      <c r="B46">
-        <v>19.8</v>
-      </c>
-      <c r="E46">
-        <v>33</v>
-      </c>
-      <c r="F46">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>13</v>
-      </c>
-      <c r="B47">
-        <v>29.5</v>
-      </c>
-      <c r="E47">
-        <v>33</v>
-      </c>
-      <c r="F47">
-        <v>36.299999999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>13</v>
-      </c>
-      <c r="B48">
-        <v>59.7</v>
-      </c>
-      <c r="E48">
-        <v>35</v>
-      </c>
-      <c r="F48">
-        <v>25.8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>13</v>
-      </c>
-      <c r="B49">
-        <v>335.8</v>
-      </c>
-      <c r="E49">
-        <v>43</v>
-      </c>
-      <c r="F49">
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>13</v>
-      </c>
-      <c r="B50">
-        <v>398.7</v>
-      </c>
-      <c r="E50">
-        <v>45</v>
-      </c>
-      <c r="F50">
-        <v>18.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E1:F50">
-    <sortCondition ref="E1:E50"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD1D4B9-C797-2042-84B0-05E164AA7C50}">
-  <dimension ref="A1:G50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>435</v>
-      </c>
-      <c r="B1">
-        <v>60</v>
-      </c>
-      <c r="C1">
-        <f>PEARSON(A1:A50,B1:B50)</f>
-        <v>-8.5652745421096656E-3</v>
-      </c>
-      <c r="E1">
-        <v>1912</v>
-      </c>
-      <c r="F1">
-        <v>11.8</v>
-      </c>
-      <c r="G1">
-        <f>PEARSON(E1:E50,F1:F50)</f>
-        <v>0.8358071005810459</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>272</v>
-      </c>
-      <c r="B2">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="E2">
-        <v>1939</v>
-      </c>
-      <c r="F2">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>181.6</v>
-      </c>
-      <c r="E3">
-        <v>344</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>362</v>
-      </c>
-      <c r="B4">
-        <v>17.8</v>
-      </c>
-      <c r="E4">
-        <v>3284</v>
-      </c>
-      <c r="F4">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>431</v>
-      </c>
-      <c r="B5">
-        <v>232.1</v>
-      </c>
-      <c r="E5">
-        <v>3054</v>
-      </c>
-      <c r="F5">
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>483</v>
-      </c>
-      <c r="B6">
-        <v>160.6</v>
-      </c>
-      <c r="E6">
-        <v>3231</v>
-      </c>
-      <c r="F6">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>73</v>
-      </c>
-      <c r="B7">
-        <v>305.3</v>
-      </c>
-      <c r="E7">
-        <v>1069</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>293</v>
-      </c>
-      <c r="B8">
-        <v>27.1</v>
-      </c>
-      <c r="E8">
-        <v>2498</v>
-      </c>
-      <c r="F8">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>365.1</v>
-      </c>
-      <c r="E9">
-        <v>2848</v>
-      </c>
-      <c r="F9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>455</v>
-      </c>
-      <c r="B10">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="E10">
-        <v>1538</v>
-      </c>
-      <c r="F10">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>23</v>
-      </c>
-      <c r="B11">
-        <v>29.8</v>
-      </c>
-      <c r="E11">
-        <v>4860</v>
-      </c>
-      <c r="F11">
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>50</v>
-      </c>
-      <c r="B12">
-        <v>142</v>
-      </c>
-      <c r="E12">
-        <v>6115</v>
-      </c>
-      <c r="F12">
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>154</v>
-      </c>
-      <c r="B13">
-        <v>309.10000000000002</v>
-      </c>
-      <c r="E13">
-        <v>4128</v>
-      </c>
-      <c r="F13">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>150</v>
-      </c>
-      <c r="B14">
-        <v>253.3</v>
-      </c>
-      <c r="E14">
-        <v>1138</v>
-      </c>
-      <c r="F14">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>344</v>
-      </c>
-      <c r="B15">
-        <v>19.8</v>
-      </c>
-      <c r="E15">
-        <v>5097</v>
-      </c>
-      <c r="F15">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>219</v>
-      </c>
-      <c r="B16">
-        <v>239</v>
-      </c>
-      <c r="E16">
-        <v>455</v>
-      </c>
-      <c r="F16">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>132</v>
-      </c>
-      <c r="B17">
-        <v>100.4</v>
-      </c>
-      <c r="E17">
-        <v>847</v>
-      </c>
-      <c r="F17">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>292</v>
-      </c>
-      <c r="B18">
-        <v>371.3</v>
-      </c>
-      <c r="E18">
-        <v>494</v>
-      </c>
-      <c r="F18">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>65</v>
-      </c>
-      <c r="B19">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="E19">
-        <v>5485</v>
-      </c>
-      <c r="F19">
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>32</v>
-      </c>
-      <c r="B20">
-        <v>26.1</v>
-      </c>
-      <c r="E20">
-        <v>4087</v>
-      </c>
-      <c r="F20">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>457</v>
-      </c>
-      <c r="B21">
-        <v>44.8</v>
-      </c>
-      <c r="E21">
-        <v>252</v>
-      </c>
-      <c r="F21">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>464</v>
-      </c>
-      <c r="B22">
-        <v>293.3</v>
-      </c>
-      <c r="E22">
-        <v>739</v>
-      </c>
-      <c r="F22">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>335</v>
-      </c>
-      <c r="B23">
-        <v>71.5</v>
-      </c>
-      <c r="E23">
-        <v>687</v>
-      </c>
-      <c r="F23">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>69</v>
-      </c>
-      <c r="E24">
-        <v>2564</v>
-      </c>
-      <c r="F24">
-        <v>29.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>106</v>
-      </c>
-      <c r="B25">
-        <v>294.7</v>
-      </c>
-      <c r="E25">
-        <v>1813</v>
-      </c>
-      <c r="F25">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>379</v>
-      </c>
-      <c r="B26">
-        <v>244.5</v>
-      </c>
-      <c r="E26">
-        <v>3104</v>
-      </c>
-      <c r="F26">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>108</v>
-      </c>
-      <c r="B27">
-        <v>292.60000000000002</v>
-      </c>
-      <c r="E27">
-        <v>2604</v>
-      </c>
-      <c r="F27">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>340</v>
-      </c>
-      <c r="B28">
-        <v>343.9</v>
-      </c>
-      <c r="E28">
-        <v>1234</v>
-      </c>
-      <c r="F28">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>450</v>
-      </c>
-      <c r="B29">
-        <v>258.7</v>
-      </c>
-      <c r="E29">
-        <v>3864</v>
-      </c>
-      <c r="F29">
-        <v>30.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>26</v>
-      </c>
-      <c r="B30">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="E30">
-        <v>1850</v>
-      </c>
-      <c r="F30">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>113</v>
-      </c>
-      <c r="B31">
-        <v>25.3</v>
-      </c>
-      <c r="E31">
-        <v>3133</v>
-      </c>
-      <c r="F31">
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>92</v>
-      </c>
-      <c r="B32">
-        <v>366</v>
-      </c>
-      <c r="E32">
-        <v>4023</v>
-      </c>
-      <c r="F32">
-        <v>33.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>471</v>
-      </c>
-      <c r="B33">
-        <v>158.30000000000001</v>
-      </c>
-      <c r="E33">
-        <v>2258</v>
-      </c>
-      <c r="F33">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>272</v>
-      </c>
-      <c r="B34">
-        <v>135.6</v>
-      </c>
-      <c r="E34">
-        <v>2286</v>
-      </c>
-      <c r="F34">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>330</v>
-      </c>
-      <c r="B35">
-        <v>432.2</v>
-      </c>
-      <c r="E35">
-        <v>1827</v>
-      </c>
-      <c r="F35">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>334</v>
-      </c>
-      <c r="B36">
-        <v>216.5</v>
-      </c>
-      <c r="E36">
-        <v>2687</v>
-      </c>
-      <c r="F36">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>447</v>
-      </c>
-      <c r="B37">
-        <v>29.5</v>
-      </c>
-      <c r="E37">
-        <v>4613</v>
-      </c>
-      <c r="F37">
-        <v>25.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>387</v>
-      </c>
-      <c r="B38">
-        <v>297.3</v>
-      </c>
-      <c r="E38">
-        <v>4537</v>
-      </c>
-      <c r="F38">
-        <v>36.299999999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>218</v>
-      </c>
-      <c r="B39">
-        <v>59.7</v>
-      </c>
-      <c r="E39">
-        <v>3700</v>
-      </c>
-      <c r="F39">
-        <v>23.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>93</v>
-      </c>
-      <c r="B40">
-        <v>30.1</v>
-      </c>
-      <c r="E40">
-        <v>2059</v>
-      </c>
-      <c r="F40">
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>178</v>
-      </c>
-      <c r="B41">
-        <v>190.6</v>
-      </c>
-      <c r="E41">
-        <v>3774</v>
-      </c>
-      <c r="F41">
-        <v>37.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>71</v>
-      </c>
-      <c r="B42">
-        <v>307</v>
-      </c>
-      <c r="E42">
-        <v>4835</v>
-      </c>
-      <c r="F42">
-        <v>40.9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>13</v>
-      </c>
-      <c r="B43">
-        <v>183.8</v>
-      </c>
-      <c r="E43">
-        <v>2207</v>
-      </c>
-      <c r="F43">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>498</v>
-      </c>
-      <c r="B44">
-        <v>335.8</v>
-      </c>
-      <c r="E44">
-        <v>4062</v>
-      </c>
-      <c r="F44">
-        <v>26.7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>47</v>
-      </c>
-      <c r="B45">
-        <v>398.7</v>
-      </c>
-      <c r="E45">
-        <v>2039</v>
-      </c>
-      <c r="F45">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>3</v>
-      </c>
-      <c r="B46">
-        <v>225.5</v>
-      </c>
-      <c r="E46">
-        <v>810</v>
-      </c>
-      <c r="F46">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>450</v>
-      </c>
-      <c r="B47">
-        <v>363.4</v>
-      </c>
-      <c r="E47">
-        <v>2405</v>
-      </c>
-      <c r="F47">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>492</v>
-      </c>
-      <c r="B48">
-        <v>300</v>
-      </c>
-      <c r="E48">
-        <v>6642</v>
-      </c>
-      <c r="F48">
-        <v>38.799999999999997</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>158</v>
-      </c>
-      <c r="B49">
-        <v>225.7</v>
-      </c>
-      <c r="E49">
-        <v>2121</v>
-      </c>
-      <c r="F49">
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>471</v>
-      </c>
-      <c r="B50">
-        <v>22.5</v>
-      </c>
-      <c r="E50">
-        <v>3223</v>
-      </c>
-      <c r="F50">
-        <v>23.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91F813D-292E-5444-ADD5-230C243EE378}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -13460,4 +11357,663 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA0DC21-AF3E-7849-8FF2-ACB26D67DAD9}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2">
+        <v>29.7</v>
+      </c>
+      <c r="C2">
+        <v>188.9</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>432.2</v>
+      </c>
+      <c r="F2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3">
+        <v>438.1</v>
+      </c>
+      <c r="C3">
+        <v>600</v>
+      </c>
+      <c r="D3">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E3">
+        <v>600</v>
+      </c>
+      <c r="F3">
+        <v>5.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72276FDC-EF75-2449-9E9F-E1806300024E}">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>365.1</v>
+      </c>
+      <c r="C2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>225.5</v>
+      </c>
+      <c r="C3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>183.8</v>
+      </c>
+      <c r="C4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>29.8</v>
+      </c>
+      <c r="C5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>69</v>
+      </c>
+      <c r="C6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="C7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>181.6</v>
+      </c>
+      <c r="C8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>26.1</v>
+      </c>
+      <c r="C9">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>398.7</v>
+      </c>
+      <c r="C10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>142</v>
+      </c>
+      <c r="C11">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>71</v>
+      </c>
+      <c r="B13">
+        <v>307</v>
+      </c>
+      <c r="C13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>73</v>
+      </c>
+      <c r="B14">
+        <v>305.3</v>
+      </c>
+      <c r="C14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>92</v>
+      </c>
+      <c r="B15">
+        <v>366</v>
+      </c>
+      <c r="C15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>93</v>
+      </c>
+      <c r="B16">
+        <v>30.1</v>
+      </c>
+      <c r="C16">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>106</v>
+      </c>
+      <c r="B17">
+        <v>294.7</v>
+      </c>
+      <c r="C17">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>108</v>
+      </c>
+      <c r="B18">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="C18">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>113</v>
+      </c>
+      <c r="B19">
+        <v>25.3</v>
+      </c>
+      <c r="C19">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>132</v>
+      </c>
+      <c r="B20">
+        <v>100.4</v>
+      </c>
+      <c r="C20">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>150</v>
+      </c>
+      <c r="B21">
+        <v>253.3</v>
+      </c>
+      <c r="C21">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>154</v>
+      </c>
+      <c r="B22">
+        <v>309.10000000000002</v>
+      </c>
+      <c r="C22">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>158</v>
+      </c>
+      <c r="B23">
+        <v>225.7</v>
+      </c>
+      <c r="C23">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>178</v>
+      </c>
+      <c r="B24">
+        <v>190.6</v>
+      </c>
+      <c r="C24">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>218</v>
+      </c>
+      <c r="B25">
+        <v>59.7</v>
+      </c>
+      <c r="C25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>219</v>
+      </c>
+      <c r="B26">
+        <v>239</v>
+      </c>
+      <c r="C26">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>272</v>
+      </c>
+      <c r="B27">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="C27">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>272</v>
+      </c>
+      <c r="B28">
+        <v>135.6</v>
+      </c>
+      <c r="C28">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>292</v>
+      </c>
+      <c r="B29">
+        <v>371.3</v>
+      </c>
+      <c r="C29">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>293</v>
+      </c>
+      <c r="B30">
+        <v>27.1</v>
+      </c>
+      <c r="C30">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>330</v>
+      </c>
+      <c r="B31">
+        <v>432.2</v>
+      </c>
+      <c r="C31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>334</v>
+      </c>
+      <c r="B32">
+        <v>216.5</v>
+      </c>
+      <c r="C32">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>335</v>
+      </c>
+      <c r="B33">
+        <v>71.5</v>
+      </c>
+      <c r="C33">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>340</v>
+      </c>
+      <c r="B34">
+        <v>343.9</v>
+      </c>
+      <c r="C34">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>344</v>
+      </c>
+      <c r="B35">
+        <v>19.8</v>
+      </c>
+      <c r="C35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>362</v>
+      </c>
+      <c r="B36">
+        <v>17.8</v>
+      </c>
+      <c r="C36">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>379</v>
+      </c>
+      <c r="B37">
+        <v>244.5</v>
+      </c>
+      <c r="C37">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>387</v>
+      </c>
+      <c r="B38">
+        <v>297.3</v>
+      </c>
+      <c r="C38">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>431</v>
+      </c>
+      <c r="B39">
+        <v>232.1</v>
+      </c>
+      <c r="C39">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>435</v>
+      </c>
+      <c r="B40">
+        <v>60</v>
+      </c>
+      <c r="C40">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>447</v>
+      </c>
+      <c r="B41">
+        <v>29.5</v>
+      </c>
+      <c r="C41">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>450</v>
+      </c>
+      <c r="B42">
+        <v>258.7</v>
+      </c>
+      <c r="C42">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>450</v>
+      </c>
+      <c r="B43">
+        <v>363.4</v>
+      </c>
+      <c r="C43">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>455</v>
+      </c>
+      <c r="B44">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="C44">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>457</v>
+      </c>
+      <c r="B45">
+        <v>44.8</v>
+      </c>
+      <c r="C45">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>464</v>
+      </c>
+      <c r="B46">
+        <v>293.3</v>
+      </c>
+      <c r="C46">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>471</v>
+      </c>
+      <c r="B47">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="C47">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>471</v>
+      </c>
+      <c r="B48">
+        <v>22.5</v>
+      </c>
+      <c r="C48">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>483</v>
+      </c>
+      <c r="B49">
+        <v>160.6</v>
+      </c>
+      <c r="C49">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>492</v>
+      </c>
+      <c r="B50">
+        <v>300</v>
+      </c>
+      <c r="C50">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>498</v>
+      </c>
+      <c r="B51">
+        <v>335.8</v>
+      </c>
+      <c r="C51">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C51">
+    <sortCondition ref="A2:A51"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>